--- a/behaviorspace/netlogoStadium maxGroupSize-spreadsheet-July11.xlsx
+++ b/behaviorspace/netlogoStadium maxGroupSize-spreadsheet-July11.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16160" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="netlogoStadium maxGroupSize-spr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -146,11 +146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2289064"/>
-        <c:axId val="433369432"/>
+        <c:axId val="472647752"/>
+        <c:axId val="472650712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2289064"/>
+        <c:axId val="472647752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -159,12 +159,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433369432"/>
+        <c:crossAx val="472650712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433369432"/>
+        <c:axId val="472650712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -175,7 +175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2289064"/>
+        <c:crossAx val="472647752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
